--- a/05 - WorkedHourPointing/ApontamentoYesica.xlsx
+++ b/05 - WorkedHourPointing/ApontamentoYesica.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\WorkedHourPointing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\05 - WorkedHourPointing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92644888-2F48-4AEA-9DA0-E940B5081C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D296D77A-3FB3-4867-A714-A82629DA51E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9D61577-ED6E-49E0-8DF4-9B4D2FEA07AE}"/>
   </bookViews>
@@ -36,180 +36,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>LPs</t>
   </si>
   <si>
-    <t>LP047515</t>
-  </si>
-  <si>
-    <t>LP047516</t>
-  </si>
-  <si>
-    <t>LP047517</t>
-  </si>
-  <si>
-    <t>LP047478</t>
-  </si>
-  <si>
-    <t>LP047786</t>
-  </si>
-  <si>
-    <t>LP047785</t>
-  </si>
-  <si>
-    <t>LP047781</t>
-  </si>
-  <si>
-    <t>LP047782</t>
-  </si>
-  <si>
-    <t>LP047770</t>
-  </si>
-  <si>
-    <t>LP047771</t>
-  </si>
-  <si>
-    <t>LP047772</t>
-  </si>
-  <si>
-    <t>LP047486</t>
-  </si>
-  <si>
-    <t>LP047487</t>
-  </si>
-  <si>
-    <t>LP047492</t>
-  </si>
-  <si>
-    <t>LP047787</t>
-  </si>
-  <si>
-    <t>LP047784</t>
-  </si>
-  <si>
-    <t>LP047783</t>
-  </si>
-  <si>
-    <t>LP047452</t>
-  </si>
-  <si>
-    <t>LP047453</t>
-  </si>
-  <si>
-    <t>LP047644</t>
-  </si>
-  <si>
-    <t>LP047643</t>
-  </si>
-  <si>
-    <t>LP047479</t>
-  </si>
-  <si>
-    <t>LP047773</t>
-  </si>
-  <si>
-    <t>LP047751</t>
-  </si>
-  <si>
-    <t>LP047752</t>
-  </si>
-  <si>
-    <t>LP047568</t>
-  </si>
-  <si>
-    <t>LP047506</t>
-  </si>
-  <si>
-    <t>LP047504</t>
-  </si>
-  <si>
-    <t>LP047511</t>
-  </si>
-  <si>
-    <t>LP047477</t>
-  </si>
-  <si>
-    <t>LP047475</t>
-  </si>
-  <si>
-    <t>LP047502</t>
-  </si>
-  <si>
-    <t>LP047476</t>
-  </si>
-  <si>
-    <t>LP047501</t>
-  </si>
-  <si>
-    <t>LP047507</t>
-  </si>
-  <si>
-    <t>LP047509</t>
-  </si>
-  <si>
-    <t>LP047474</t>
-  </si>
-  <si>
-    <t>LP047524</t>
-  </si>
-  <si>
-    <t>LP047523</t>
-  </si>
-  <si>
-    <t>LP047522</t>
-  </si>
-  <si>
-    <t>LP047518</t>
-  </si>
-  <si>
-    <t>LP047490</t>
-  </si>
-  <si>
-    <t>LP047527</t>
-  </si>
-  <si>
-    <t>LP047481</t>
-  </si>
-  <si>
-    <t>LP047484</t>
-  </si>
-  <si>
-    <t>LP047485</t>
-  </si>
-  <si>
-    <t>LP047483</t>
-  </si>
-  <si>
-    <t>LP047482</t>
-  </si>
-  <si>
-    <t>LP047480</t>
-  </si>
-  <si>
-    <t>LP047514</t>
-  </si>
-  <si>
-    <t>LP047488</t>
-  </si>
-  <si>
-    <t>LP047491</t>
-  </si>
-  <si>
-    <t>LP047520</t>
-  </si>
-  <si>
-    <t>LP047521</t>
-  </si>
-  <si>
-    <t>LP047528</t>
-  </si>
-  <si>
-    <t>LP047489</t>
-  </si>
-  <si>
-    <t>LP047526</t>
+    <t>LP047868</t>
+  </si>
+  <si>
+    <t>LP047867</t>
+  </si>
+  <si>
+    <t>LP047871</t>
+  </si>
+  <si>
+    <t>LP047874</t>
+  </si>
+  <si>
+    <t>LP047877</t>
+  </si>
+  <si>
+    <t>LP047875</t>
+  </si>
+  <si>
+    <t>LP047876</t>
+  </si>
+  <si>
+    <t>LP047869</t>
+  </si>
+  <si>
+    <t>LP047866</t>
+  </si>
+  <si>
+    <t>LP047870</t>
+  </si>
+  <si>
+    <t>LP047826</t>
+  </si>
+  <si>
+    <t>LP047873</t>
+  </si>
+  <si>
+    <t>LP047872</t>
+  </si>
+  <si>
+    <t>LP047865</t>
+  </si>
+  <si>
+    <t>LP047829</t>
+  </si>
+  <si>
+    <t>LP047828</t>
+  </si>
+  <si>
+    <t>LP047886</t>
+  </si>
+  <si>
+    <t>LP047883</t>
+  </si>
+  <si>
+    <t>LP047884</t>
+  </si>
+  <si>
+    <t>LP047885</t>
+  </si>
+  <si>
+    <t>LP047890</t>
+  </si>
+  <si>
+    <t>LP047836</t>
+  </si>
+  <si>
+    <t>LP047835</t>
+  </si>
+  <si>
+    <t>LP047888</t>
+  </si>
+  <si>
+    <t>LP047887</t>
+  </si>
+  <si>
+    <t>LP047837</t>
+  </si>
+  <si>
+    <t>LP047842</t>
+  </si>
+  <si>
+    <t>LP047843</t>
+  </si>
+  <si>
+    <t>LP047834</t>
+  </si>
+  <si>
+    <t>LP047841</t>
+  </si>
+  <si>
+    <t>LP047889</t>
+  </si>
+  <si>
+    <t>LP047882</t>
+  </si>
+  <si>
+    <t>LP047892</t>
+  </si>
+  <si>
+    <t>LP047891</t>
+  </si>
+  <si>
+    <t>LP047833</t>
+  </si>
+  <si>
+    <t>LP047839</t>
+  </si>
+  <si>
+    <t>LP047838</t>
   </si>
 </sst>
 </file>
@@ -278,12 +218,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -602,9 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67CD9C8-C549-42C7-8116-4422AAB55D3F}">
   <dimension ref="A1:A58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -802,104 +743,64 @@
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A39" s="3"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="A40" s="3"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A41" s="3"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="A42" s="3"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="A43" s="3"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A44" s="3"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A45" s="3"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A46" s="3"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A47" s="3"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="A48" s="3"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="A49" s="3"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="A50" s="3"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="A51" s="3"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="A52" s="3"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A53" s="3"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A54" s="3"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="A55" s="3"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A56" s="3"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="A57" s="3"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A58" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/05 - WorkedHourPointing/ApontamentoYesica.xlsx
+++ b/05 - WorkedHourPointing/ApontamentoYesica.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mao8ct\Desktop\PyAutomateSAP\05 - WorkedHourPointing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D296D77A-3FB3-4867-A714-A82629DA51E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0D0CC5-3A94-4A66-B243-75C9A72FAA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9D61577-ED6E-49E0-8DF4-9B4D2FEA07AE}"/>
   </bookViews>
@@ -36,127 +36,301 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>LPs</t>
   </si>
   <si>
-    <t>LP047868</t>
-  </si>
-  <si>
-    <t>LP047867</t>
-  </si>
-  <si>
-    <t>LP047871</t>
-  </si>
-  <si>
-    <t>LP047874</t>
-  </si>
-  <si>
-    <t>LP047877</t>
-  </si>
-  <si>
-    <t>LP047875</t>
-  </si>
-  <si>
-    <t>LP047876</t>
-  </si>
-  <si>
-    <t>LP047869</t>
-  </si>
-  <si>
-    <t>LP047866</t>
-  </si>
-  <si>
-    <t>LP047870</t>
-  </si>
-  <si>
-    <t>LP047826</t>
-  </si>
-  <si>
-    <t>LP047873</t>
-  </si>
-  <si>
-    <t>LP047872</t>
-  </si>
-  <si>
-    <t>LP047865</t>
-  </si>
-  <si>
-    <t>LP047829</t>
-  </si>
-  <si>
-    <t>LP047828</t>
-  </si>
-  <si>
-    <t>LP047886</t>
-  </si>
-  <si>
-    <t>LP047883</t>
-  </si>
-  <si>
-    <t>LP047884</t>
-  </si>
-  <si>
-    <t>LP047885</t>
-  </si>
-  <si>
-    <t>LP047890</t>
-  </si>
-  <si>
-    <t>LP047836</t>
-  </si>
-  <si>
-    <t>LP047835</t>
-  </si>
-  <si>
-    <t>LP047888</t>
-  </si>
-  <si>
-    <t>LP047887</t>
-  </si>
-  <si>
-    <t>LP047837</t>
-  </si>
-  <si>
-    <t>LP047842</t>
-  </si>
-  <si>
-    <t>LP047843</t>
-  </si>
-  <si>
-    <t>LP047834</t>
-  </si>
-  <si>
-    <t>LP047841</t>
-  </si>
-  <si>
-    <t>LP047889</t>
-  </si>
-  <si>
-    <t>LP047882</t>
-  </si>
-  <si>
-    <t>LP047892</t>
-  </si>
-  <si>
-    <t>LP047891</t>
-  </si>
-  <si>
-    <t>LP047833</t>
-  </si>
-  <si>
-    <t>LP047839</t>
-  </si>
-  <si>
-    <t>LP047838</t>
+    <t>LP048031</t>
+  </si>
+  <si>
+    <t>LP048014</t>
+  </si>
+  <si>
+    <t>LP048277</t>
+  </si>
+  <si>
+    <t>LP048036</t>
+  </si>
+  <si>
+    <t>LP048037</t>
+  </si>
+  <si>
+    <t>LP048388</t>
+  </si>
+  <si>
+    <t>LP048387</t>
+  </si>
+  <si>
+    <t>LP048179</t>
+  </si>
+  <si>
+    <t>LP048279</t>
+  </si>
+  <si>
+    <t>LP048219</t>
+  </si>
+  <si>
+    <t>LP048220</t>
+  </si>
+  <si>
+    <t>LP048349</t>
+  </si>
+  <si>
+    <t>LP048271</t>
+  </si>
+  <si>
+    <t>LP048270</t>
+  </si>
+  <si>
+    <t>LP048269</t>
+  </si>
+  <si>
+    <t>LP048267</t>
+  </si>
+  <si>
+    <t>LP048268</t>
+  </si>
+  <si>
+    <t>LP048198</t>
+  </si>
+  <si>
+    <t>LP048197</t>
+  </si>
+  <si>
+    <t>LP048188</t>
+  </si>
+  <si>
+    <t>LP048189</t>
+  </si>
+  <si>
+    <t>LP048187</t>
+  </si>
+  <si>
+    <t>LP048199</t>
+  </si>
+  <si>
+    <t>LP048191</t>
+  </si>
+  <si>
+    <t>LP048192</t>
+  </si>
+  <si>
+    <t>LP048190</t>
+  </si>
+  <si>
+    <t>LP048230</t>
+  </si>
+  <si>
+    <t>LP048221</t>
+  </si>
+  <si>
+    <t>LP048273</t>
+  </si>
+  <si>
+    <t>LP048274</t>
+  </si>
+  <si>
+    <t>LP048272</t>
+  </si>
+  <si>
+    <t>LP048276</t>
+  </si>
+  <si>
+    <t>LP048275</t>
+  </si>
+  <si>
+    <t>LP048423</t>
+  </si>
+  <si>
+    <t>LP047992</t>
+  </si>
+  <si>
+    <t>LP048391</t>
+  </si>
+  <si>
+    <t>LP048389</t>
+  </si>
+  <si>
+    <t>LP048379</t>
+  </si>
+  <si>
+    <t>LP048375</t>
+  </si>
+  <si>
+    <t>LP048382</t>
+  </si>
+  <si>
+    <t>LP048378</t>
+  </si>
+  <si>
+    <t>LP048377</t>
+  </si>
+  <si>
+    <t>LP048376</t>
+  </si>
+  <si>
+    <t>LP048374</t>
+  </si>
+  <si>
+    <t>LP048371</t>
+  </si>
+  <si>
+    <t>LP048390</t>
+  </si>
+  <si>
+    <t>LP048380</t>
+  </si>
+  <si>
+    <t>LP048381</t>
+  </si>
+  <si>
+    <t>LP048384</t>
+  </si>
+  <si>
+    <t>LP048424</t>
+  </si>
+  <si>
+    <t>LP048425</t>
+  </si>
+  <si>
+    <t>LP048369</t>
+  </si>
+  <si>
+    <t>LP048368</t>
+  </si>
+  <si>
+    <t>LP048422</t>
+  </si>
+  <si>
+    <t>LP048643</t>
+  </si>
+  <si>
+    <t>LP048644</t>
+  </si>
+  <si>
+    <t>LP048653</t>
+  </si>
+  <si>
+    <t>LP048654</t>
+  </si>
+  <si>
+    <t>LP048652</t>
+  </si>
+  <si>
+    <t>LP048651</t>
+  </si>
+  <si>
+    <t>LP048658</t>
+  </si>
+  <si>
+    <t>LP048650</t>
+  </si>
+  <si>
+    <t>LP048589</t>
+  </si>
+  <si>
+    <t>LP048648</t>
+  </si>
+  <si>
+    <t>LP048646</t>
+  </si>
+  <si>
+    <t>LP048649</t>
+  </si>
+  <si>
+    <t>LP048647</t>
+  </si>
+  <si>
+    <t>LP048512</t>
+  </si>
+  <si>
+    <t>LP048292</t>
+  </si>
+  <si>
+    <t>LP048291</t>
+  </si>
+  <si>
+    <t>LP048293</t>
+  </si>
+  <si>
+    <t>LP048431</t>
+  </si>
+  <si>
+    <t>LP048432</t>
+  </si>
+  <si>
+    <t>LP048152</t>
+  </si>
+  <si>
+    <t>LP048153</t>
+  </si>
+  <si>
+    <t>LP048154</t>
+  </si>
+  <si>
+    <t>LP048155</t>
+  </si>
+  <si>
+    <t>LP048156</t>
+  </si>
+  <si>
+    <t>LP048157</t>
+  </si>
+  <si>
+    <t>LP048158</t>
+  </si>
+  <si>
+    <t>LP048159</t>
+  </si>
+  <si>
+    <t>LP048160</t>
+  </si>
+  <si>
+    <t>LP048164</t>
+  </si>
+  <si>
+    <t>LP048172</t>
+  </si>
+  <si>
+    <t>LP048175</t>
+  </si>
+  <si>
+    <t>LP048136</t>
+  </si>
+  <si>
+    <t>LP048138</t>
+  </si>
+  <si>
+    <t>LP048139</t>
+  </si>
+  <si>
+    <t>LP048140</t>
+  </si>
+  <si>
+    <t>LP048141</t>
+  </si>
+  <si>
+    <t>LP048143</t>
+  </si>
+  <si>
+    <t>LP048144</t>
+  </si>
+  <si>
+    <t>LP048145</t>
+  </si>
+  <si>
+    <t>LP048146</t>
+  </si>
+  <si>
+    <t>LP048147</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +343,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -218,15 +398,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -247,9 +424,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -287,7 +464,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -393,7 +570,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -535,7 +712,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -543,7 +720,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67CD9C8-C549-42C7-8116-4422AAB55D3F}">
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:A96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -743,66 +920,297 @@
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>